--- a/CCP Rejection Count Sheet.xlsx
+++ b/CCP Rejection Count Sheet.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqureshi\OneDrive - Saisystems\Desktop\SaiI_imp_Doc\Incident Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D13B1C9-3CCF-42B5-A26B-4813B86837FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F1593-D4AB-4197-8977-AF2CC56FB284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{10851A29-5531-4D34-9731-0E5C1736B6C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{10851A29-5531-4D34-9731-0E5C1736B6C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="05-13" sheetId="1" r:id="rId1"/>
+    <sheet name="05-13" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="05-19" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -38,6 +38,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{D09C9CE3-5E19-46A7-AB8C-79369FEC7F3F}" keepAlive="1" name="GettingStartedinPowerBI" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=ClaimsToken;Persist Security Info=True;Initial Catalog=sobe_wowvirtualserver-fa2f587b-3cbd-4c9c-8469-1e6940e11967;Data Source=pbiazure://api.powerbi.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Identity Provider=https://login.microsoftonline.com/common, https://analysis.windows.net/powerbi/api, 929d0ec0-7a41-4b1e-bc7c-b754a28bddcc;Update Isolation Level=2" command="Model" commandType="1"/>
+    <olapPr rowDrillCount="1000"/>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8859,8 +8868,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
